--- a/data/pca/factorExposure/factorExposure_2018-10-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.04781655658016868</v>
+        <v>-0.03822313350859951</v>
       </c>
       <c r="C2">
-        <v>0.0554946483997223</v>
+        <v>-0.003841327767281457</v>
       </c>
       <c r="D2">
-        <v>0.04516552262029955</v>
+        <v>0.0136587742728578</v>
       </c>
       <c r="E2">
-        <v>0.04972887577575417</v>
+        <v>-0.01679405851968055</v>
       </c>
       <c r="F2">
-        <v>0.1422777303173315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03130437675402038</v>
+      </c>
+      <c r="G2">
+        <v>-0.08559532650142232</v>
+      </c>
+      <c r="H2">
+        <v>-0.02938806716498557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1532005135017122</v>
+        <v>-0.09274027144877769</v>
       </c>
       <c r="C3">
-        <v>0.01099463753328622</v>
+        <v>0.0395693463649259</v>
       </c>
       <c r="D3">
-        <v>0.06175952999918981</v>
+        <v>0.03767179766949351</v>
       </c>
       <c r="E3">
-        <v>0.09243537289772939</v>
+        <v>-0.01222905702541052</v>
       </c>
       <c r="F3">
-        <v>0.3779349460319505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.00173581161309613</v>
+      </c>
+      <c r="G3">
+        <v>-0.2894583506370225</v>
+      </c>
+      <c r="H3">
+        <v>-0.06203316973712045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05702614302281193</v>
+        <v>-0.04997331409755758</v>
       </c>
       <c r="C4">
-        <v>0.03405102116739786</v>
+        <v>0.008270294978574113</v>
       </c>
       <c r="D4">
-        <v>0.02040293091081648</v>
+        <v>0.03434504506238961</v>
       </c>
       <c r="E4">
-        <v>0.08229679265536183</v>
+        <v>0.01764400436794209</v>
       </c>
       <c r="F4">
-        <v>0.06319548820235245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06475819590094352</v>
+      </c>
+      <c r="G4">
+        <v>-0.04260730202632781</v>
+      </c>
+      <c r="H4">
+        <v>-0.03168791405697272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009250601775256618</v>
+        <v>-0.03105185566467623</v>
       </c>
       <c r="C6">
-        <v>0.001311569561333339</v>
+        <v>0.004340443119005936</v>
       </c>
       <c r="D6">
-        <v>0.00939302759517659</v>
+        <v>0.03108748532130984</v>
       </c>
       <c r="E6">
-        <v>0.002038937070283912</v>
+        <v>0.004048308374336898</v>
       </c>
       <c r="F6">
-        <v>0.009943532580958918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03284018439147895</v>
+      </c>
+      <c r="G6">
+        <v>-0.003136465546786317</v>
+      </c>
+      <c r="H6">
+        <v>-0.05134471105482666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03028721499757538</v>
+        <v>-0.02430144041435606</v>
       </c>
       <c r="C7">
-        <v>0.01642159853498058</v>
+        <v>0.00422621717854758</v>
       </c>
       <c r="D7">
-        <v>0.03602279533545345</v>
+        <v>0.01981011290350013</v>
       </c>
       <c r="E7">
-        <v>0.03684048931066858</v>
+        <v>0.03478895848727179</v>
       </c>
       <c r="F7">
-        <v>0.06640278323368015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02646306887027324</v>
+      </c>
+      <c r="G7">
+        <v>-0.03573666866510243</v>
+      </c>
+      <c r="H7">
+        <v>-0.02256487120111163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01454720410160295</v>
+        <v>-0.004559735758118248</v>
       </c>
       <c r="C8">
-        <v>0.006148729369334513</v>
+        <v>0.002863846333546345</v>
       </c>
       <c r="D8">
-        <v>0.01276236899604286</v>
+        <v>0.02175456351013393</v>
       </c>
       <c r="E8">
-        <v>0.07443497209293651</v>
+        <v>0.0112796075999958</v>
       </c>
       <c r="F8">
-        <v>0.09423700755679962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02817787650839658</v>
+      </c>
+      <c r="G8">
+        <v>-0.05442278020912764</v>
+      </c>
+      <c r="H8">
+        <v>-0.01445069387070076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04541736672030752</v>
+        <v>-0.04003616482641938</v>
       </c>
       <c r="C9">
-        <v>0.02703125989389437</v>
+        <v>0.01023285520169266</v>
       </c>
       <c r="D9">
-        <v>0.004511929358905091</v>
+        <v>0.02853754153034711</v>
       </c>
       <c r="E9">
-        <v>0.08642417125618602</v>
+        <v>0.01749832179352453</v>
       </c>
       <c r="F9">
-        <v>0.06901371319975373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04303082310748436</v>
+      </c>
+      <c r="G9">
+        <v>-0.06149977705079002</v>
+      </c>
+      <c r="H9">
+        <v>-0.03632120423183752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04533664666131097</v>
+        <v>-0.06756873385067913</v>
       </c>
       <c r="C10">
-        <v>0.0559062321849078</v>
+        <v>0.03579777112755207</v>
       </c>
       <c r="D10">
-        <v>-0.05218936130672677</v>
+        <v>-0.1571416100697688</v>
       </c>
       <c r="E10">
-        <v>-0.1299671334651656</v>
+        <v>-0.01693205775073543</v>
       </c>
       <c r="F10">
-        <v>0.08096569973939435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08047855798612634</v>
+      </c>
+      <c r="G10">
+        <v>-0.04587190711765422</v>
+      </c>
+      <c r="H10">
+        <v>-0.01293886064721368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03518757684842497</v>
+        <v>-0.02366337286206027</v>
       </c>
       <c r="C11">
-        <v>0.009678113068664</v>
+        <v>0.01535137898046312</v>
       </c>
       <c r="D11">
-        <v>0.02226139246646679</v>
+        <v>0.03402851855178297</v>
       </c>
       <c r="E11">
-        <v>0.03600186403464325</v>
+        <v>-0.004755539472053409</v>
       </c>
       <c r="F11">
-        <v>0.03247497477520565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02504590995025019</v>
+      </c>
+      <c r="G11">
+        <v>-0.03123300074832729</v>
+      </c>
+      <c r="H11">
+        <v>-0.03112734477084249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04194123356573737</v>
+        <v>-0.03254836021972013</v>
       </c>
       <c r="C12">
-        <v>0.01045573807353091</v>
+        <v>0.01542005083478718</v>
       </c>
       <c r="D12">
-        <v>0.01414999305048814</v>
+        <v>0.03384559789322727</v>
       </c>
       <c r="E12">
-        <v>0.04919475385162055</v>
+        <v>0.005612124266087187</v>
       </c>
       <c r="F12">
-        <v>0.01872921254576922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02743403864791459</v>
+      </c>
+      <c r="G12">
+        <v>-0.005335992221589299</v>
+      </c>
+      <c r="H12">
+        <v>-0.01636953248175404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02738521026576437</v>
+        <v>-0.03086048950119398</v>
       </c>
       <c r="C13">
-        <v>0.01923362394430787</v>
+        <v>-0.005792908304763649</v>
       </c>
       <c r="D13">
-        <v>0.04009123082746557</v>
+        <v>0.006283055443378313</v>
       </c>
       <c r="E13">
-        <v>0.02376573156535139</v>
+        <v>-0.0166634417141149</v>
       </c>
       <c r="F13">
-        <v>0.09162438581202355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02077703650582866</v>
+      </c>
+      <c r="G13">
+        <v>-0.06497621535489351</v>
+      </c>
+      <c r="H13">
+        <v>-0.03248111114987368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01607805372792177</v>
+        <v>-0.01782916905064682</v>
       </c>
       <c r="C14">
-        <v>0.02151857787692801</v>
+        <v>0.005168576228466944</v>
       </c>
       <c r="D14">
-        <v>0.01489808142909689</v>
+        <v>0.004909833830468132</v>
       </c>
       <c r="E14">
-        <v>0.04446968947701541</v>
+        <v>0.006490441113052782</v>
       </c>
       <c r="F14">
-        <v>0.06225328260480639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02960176464387107</v>
+      </c>
+      <c r="G14">
+        <v>-0.04275399297914551</v>
+      </c>
+      <c r="H14">
+        <v>0.01565735265208263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02750558758810794</v>
+        <v>-0.02408620129557491</v>
       </c>
       <c r="C16">
-        <v>0.01049954796367205</v>
+        <v>0.0154625417670465</v>
       </c>
       <c r="D16">
-        <v>0.01987181184043865</v>
+        <v>0.03246711423710411</v>
       </c>
       <c r="E16">
-        <v>0.03441596946430884</v>
+        <v>-2.487279254875997e-05</v>
       </c>
       <c r="F16">
-        <v>0.03287358259422885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02559838674498549</v>
+      </c>
+      <c r="G16">
+        <v>-0.023351972257281</v>
+      </c>
+      <c r="H16">
+        <v>-0.02361864725872654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04140673227055224</v>
+        <v>-0.03409117278393749</v>
       </c>
       <c r="C19">
-        <v>0.01180244777408235</v>
+        <v>0.008507711987650473</v>
       </c>
       <c r="D19">
-        <v>0.03410296090150656</v>
+        <v>0.0156182219375985</v>
       </c>
       <c r="E19">
-        <v>0.0435830949477051</v>
+        <v>-0.004167436019085179</v>
       </c>
       <c r="F19">
-        <v>0.1015530747249658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03629358084189504</v>
+      </c>
+      <c r="G19">
+        <v>-0.06834578257801863</v>
+      </c>
+      <c r="H19">
+        <v>-0.04744920884747163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004360058199227762</v>
+        <v>-0.01128588240499164</v>
       </c>
       <c r="C20">
-        <v>0.01416758596039472</v>
+        <v>-0.004040581343816655</v>
       </c>
       <c r="D20">
-        <v>0.02104834688743237</v>
+        <v>0.01375777360449398</v>
       </c>
       <c r="E20">
-        <v>0.05218242841904169</v>
+        <v>0.001769920540271966</v>
       </c>
       <c r="F20">
-        <v>0.06540499342407946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02060268702076714</v>
+      </c>
+      <c r="G20">
+        <v>-0.0523965245384316</v>
+      </c>
+      <c r="H20">
+        <v>0.006611010575031907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002242764531705203</v>
+        <v>-0.02315893082146413</v>
       </c>
       <c r="C21">
-        <v>-0.001315394383226017</v>
+        <v>-0.0009991093626906848</v>
       </c>
       <c r="D21">
-        <v>0.01943581866786581</v>
+        <v>0.001010796636467202</v>
       </c>
       <c r="E21">
-        <v>0.03499554379936708</v>
+        <v>0.01044819229028198</v>
       </c>
       <c r="F21">
-        <v>0.08893252939268979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.009633183309819217</v>
+      </c>
+      <c r="G21">
+        <v>-0.05829890416130496</v>
+      </c>
+      <c r="H21">
+        <v>-0.01697531937716648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03000415461673954</v>
+        <v>-0.02438697206921077</v>
       </c>
       <c r="C24">
-        <v>0.009214744214636618</v>
+        <v>0.01042084087600718</v>
       </c>
       <c r="D24">
-        <v>0.01723894662286444</v>
+        <v>0.03177358535189236</v>
       </c>
       <c r="E24">
-        <v>0.03333297240882373</v>
+        <v>0.0001404215638179015</v>
       </c>
       <c r="F24">
-        <v>0.0359723505967787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02176749648362853</v>
+      </c>
+      <c r="G24">
+        <v>-0.02533341979262774</v>
+      </c>
+      <c r="H24">
+        <v>-0.03096706943115748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03182625569643006</v>
+        <v>-0.03435274785646724</v>
       </c>
       <c r="C25">
-        <v>0.009483945929198028</v>
+        <v>0.01077740528599442</v>
       </c>
       <c r="D25">
-        <v>0.01498474680166831</v>
+        <v>0.02493677232361043</v>
       </c>
       <c r="E25">
-        <v>0.0382668429484463</v>
+        <v>0.0007159351167366417</v>
       </c>
       <c r="F25">
-        <v>0.03768888989634432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02719466573305041</v>
+      </c>
+      <c r="G25">
+        <v>-0.03088570882864989</v>
+      </c>
+      <c r="H25">
+        <v>-0.03400049327312919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02112879621035157</v>
+        <v>-0.02202599103618516</v>
       </c>
       <c r="C26">
-        <v>-0.003088505065989225</v>
+        <v>-0.01357563566387641</v>
       </c>
       <c r="D26">
-        <v>0.04404993618435267</v>
+        <v>0.01193746177115346</v>
       </c>
       <c r="E26">
-        <v>0.0395992921013622</v>
+        <v>-0.00643880158545735</v>
       </c>
       <c r="F26">
-        <v>0.05780168532711225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006801389083960988</v>
+      </c>
+      <c r="G26">
+        <v>-0.03845036252676802</v>
+      </c>
+      <c r="H26">
+        <v>-0.005422970371818907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07729356168698066</v>
+        <v>-0.03429448728874326</v>
       </c>
       <c r="C27">
-        <v>0.05096598375520092</v>
+        <v>0.02221830844159923</v>
       </c>
       <c r="D27">
-        <v>0.008844997869898478</v>
+        <v>0.007014512342185101</v>
       </c>
       <c r="E27">
-        <v>0.05634668086292479</v>
+        <v>0.002385658372896496</v>
       </c>
       <c r="F27">
-        <v>0.06013757873817829</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02824094583172662</v>
+      </c>
+      <c r="G27">
+        <v>-0.02904589681697084</v>
+      </c>
+      <c r="H27">
+        <v>-0.003004954330025907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06288073988193861</v>
+        <v>-0.1052895849702378</v>
       </c>
       <c r="C28">
-        <v>0.07056959996026795</v>
+        <v>0.04101101692270103</v>
       </c>
       <c r="D28">
-        <v>-0.08970901609478005</v>
+        <v>-0.2307861515891776</v>
       </c>
       <c r="E28">
-        <v>-0.1943742299571403</v>
+        <v>-0.01804296471324797</v>
       </c>
       <c r="F28">
-        <v>0.08315636663027685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1153205459049468</v>
+      </c>
+      <c r="G28">
+        <v>-0.02855438415142198</v>
+      </c>
+      <c r="H28">
+        <v>0.001798671462518358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02265932231444942</v>
+        <v>-0.02203399637890316</v>
       </c>
       <c r="C29">
-        <v>0.01954470219651858</v>
+        <v>0.007765105005730569</v>
       </c>
       <c r="D29">
-        <v>0.01329475628259009</v>
+        <v>0.007478931335291651</v>
       </c>
       <c r="E29">
-        <v>0.05829845554182358</v>
+        <v>0.007180795167248825</v>
       </c>
       <c r="F29">
-        <v>0.05294508124745811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0301835145094984</v>
+      </c>
+      <c r="G29">
+        <v>-0.03682460846847616</v>
+      </c>
+      <c r="H29">
+        <v>0.01347523566230326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08798060141671117</v>
+        <v>-0.06368924469467607</v>
       </c>
       <c r="C30">
-        <v>0.05289472476358516</v>
+        <v>0.01435628330518123</v>
       </c>
       <c r="D30">
-        <v>0.05368879196936531</v>
+        <v>0.05122357783248507</v>
       </c>
       <c r="E30">
-        <v>0.07808172530961829</v>
+        <v>-0.04088024993408571</v>
       </c>
       <c r="F30">
-        <v>0.0777282734225222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07113716712310837</v>
+      </c>
+      <c r="G30">
+        <v>-0.06961517306082327</v>
+      </c>
+      <c r="H30">
+        <v>-0.05174825335369249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05787974866505902</v>
+        <v>-0.05172689153380546</v>
       </c>
       <c r="C31">
-        <v>0.0179213998358416</v>
+        <v>0.0267596331768835</v>
       </c>
       <c r="D31">
-        <v>0.05010044280491452</v>
+        <v>0.01873770431965023</v>
       </c>
       <c r="E31">
-        <v>0.02178461513824109</v>
+        <v>-0.01140468082217293</v>
       </c>
       <c r="F31">
-        <v>0.03156123400797943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02073445129808538</v>
+      </c>
+      <c r="G31">
+        <v>-0.01717069620345079</v>
+      </c>
+      <c r="H31">
+        <v>0.01254283112348372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02021333449556736</v>
+        <v>-0.008574342036013117</v>
       </c>
       <c r="C32">
-        <v>0.01902198333445354</v>
+        <v>0.01731251281754632</v>
       </c>
       <c r="D32">
-        <v>0.01846426837966982</v>
+        <v>0.005990667726668581</v>
       </c>
       <c r="E32">
-        <v>0.08800365912218747</v>
+        <v>0.01751493008808486</v>
       </c>
       <c r="F32">
-        <v>0.07676732146068099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04878877643702993</v>
+      </c>
+      <c r="G32">
+        <v>-0.04674772814462012</v>
+      </c>
+      <c r="H32">
+        <v>-0.04460249571778956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05345380830372328</v>
+        <v>-0.04052219816318824</v>
       </c>
       <c r="C33">
-        <v>0.003339114521965345</v>
+        <v>0.01060950376410254</v>
       </c>
       <c r="D33">
-        <v>0.05553267468988469</v>
+        <v>0.03299231432479441</v>
       </c>
       <c r="E33">
-        <v>0.05672069208744752</v>
+        <v>-0.02376614974899102</v>
       </c>
       <c r="F33">
-        <v>0.08722209720877476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0165116839535955</v>
+      </c>
+      <c r="G33">
+        <v>-0.05961394851380172</v>
+      </c>
+      <c r="H33">
+        <v>-0.02536305670192454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03209507667520527</v>
+        <v>-0.02546054820350708</v>
       </c>
       <c r="C34">
-        <v>0.01611260149833401</v>
+        <v>0.02422078173508143</v>
       </c>
       <c r="D34">
-        <v>0.02016082450936865</v>
+        <v>0.02933152055607628</v>
       </c>
       <c r="E34">
-        <v>0.04143802504132686</v>
+        <v>0.004377549564673498</v>
       </c>
       <c r="F34">
-        <v>0.03815104921062249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0284987665165967</v>
+      </c>
+      <c r="G34">
+        <v>-0.02485077427804894</v>
+      </c>
+      <c r="H34">
+        <v>-0.03040848505023926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01292638552275889</v>
+        <v>-0.01831740660142041</v>
       </c>
       <c r="C36">
-        <v>0.006283254376630014</v>
+        <v>-0.001172524904705497</v>
       </c>
       <c r="D36">
-        <v>0.006070304405109053</v>
+        <v>-0.0004227083872196586</v>
       </c>
       <c r="E36">
-        <v>0.02742805446968074</v>
+        <v>0.002884279619642967</v>
       </c>
       <c r="F36">
-        <v>0.03115052873647987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006152059805569605</v>
+      </c>
+      <c r="G36">
+        <v>-0.02317972059347336</v>
+      </c>
+      <c r="H36">
+        <v>-0.0005362440874591452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006523487498383144</v>
+        <v>-0.01328984916967277</v>
       </c>
       <c r="C38">
-        <v>0.0007345999249360751</v>
+        <v>0.01819990107364727</v>
       </c>
       <c r="D38">
-        <v>-0.01397719248116883</v>
+        <v>-4.018437780378481e-05</v>
       </c>
       <c r="E38">
-        <v>0.0005596844487616342</v>
+        <v>0.006135788391301461</v>
       </c>
       <c r="F38">
-        <v>0.01752859386306186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01143536880392613</v>
+      </c>
+      <c r="G38">
+        <v>-0.02870542439826469</v>
+      </c>
+      <c r="H38">
+        <v>-0.02408602526390922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04057930708702058</v>
+        <v>-0.02880039195195915</v>
       </c>
       <c r="C39">
-        <v>0.02172534282223742</v>
+        <v>0.01150342998880887</v>
       </c>
       <c r="D39">
-        <v>0.03776491546941537</v>
+        <v>0.06604666105078615</v>
       </c>
       <c r="E39">
-        <v>0.03945110999593851</v>
+        <v>-0.004377000543776324</v>
       </c>
       <c r="F39">
-        <v>0.03984552109361188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04751624229489728</v>
+      </c>
+      <c r="G39">
+        <v>-0.04525258155577119</v>
+      </c>
+      <c r="H39">
+        <v>-0.05342570824677197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0358167945172668</v>
+        <v>-0.03359789164912803</v>
       </c>
       <c r="C40">
-        <v>0.03978823879660354</v>
+        <v>0.01058153708747023</v>
       </c>
       <c r="D40">
-        <v>0.06372085045482168</v>
+        <v>0.02440264972105775</v>
       </c>
       <c r="E40">
-        <v>0.045862759894987</v>
+        <v>-0.02112923578371024</v>
       </c>
       <c r="F40">
-        <v>0.08334820287669921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0415175319395391</v>
+      </c>
+      <c r="G40">
+        <v>-0.04247636659736105</v>
+      </c>
+      <c r="H40">
+        <v>-0.05600571605096841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0008899141296660719</v>
+        <v>-0.00751619756256318</v>
       </c>
       <c r="C41">
-        <v>-0.007804600201199565</v>
+        <v>-5.040726794087335e-05</v>
       </c>
       <c r="D41">
-        <v>0.01341445161695676</v>
+        <v>-0.004911253137036047</v>
       </c>
       <c r="E41">
-        <v>0.02115824238511329</v>
+        <v>-0.001417702861714214</v>
       </c>
       <c r="F41">
-        <v>0.02264504647467235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.002486965434132673</v>
+      </c>
+      <c r="G41">
+        <v>-0.01129354489074345</v>
+      </c>
+      <c r="H41">
+        <v>0.01534718396825413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3871887505509142</v>
+        <v>-0.2410436637703111</v>
       </c>
       <c r="C42">
-        <v>-0.8722112403496095</v>
+        <v>-0.05109622705993759</v>
       </c>
       <c r="D42">
-        <v>0.149598238008592</v>
+        <v>0.5436539057582396</v>
       </c>
       <c r="E42">
-        <v>-0.1881800050897247</v>
+        <v>-0.1068497225725644</v>
       </c>
       <c r="F42">
-        <v>-0.02850219797685532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7784029087215176</v>
+      </c>
+      <c r="G42">
+        <v>0.08825326339688019</v>
+      </c>
+      <c r="H42">
+        <v>-0.0249684448718777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008045655527117022</v>
+        <v>-0.005034335115775894</v>
       </c>
       <c r="C43">
-        <v>-0.004239498997069278</v>
+        <v>-0.002861765402563344</v>
       </c>
       <c r="D43">
-        <v>0.02032161786037738</v>
+        <v>-0.005687250912877942</v>
       </c>
       <c r="E43">
-        <v>0.02363384960305996</v>
+        <v>-0.005466119324798441</v>
       </c>
       <c r="F43">
-        <v>0.03470793609301485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.006207859796020078</v>
+      </c>
+      <c r="G43">
+        <v>-0.01821108103426753</v>
+      </c>
+      <c r="H43">
+        <v>0.00945122222955461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02478397540555802</v>
+        <v>-0.01406029333840846</v>
       </c>
       <c r="C44">
-        <v>0.003824852043697674</v>
+        <v>0.003081090173076657</v>
       </c>
       <c r="D44">
-        <v>0.03613535154907414</v>
+        <v>0.02610643979637058</v>
       </c>
       <c r="E44">
-        <v>0.05361225003414712</v>
+        <v>0.001353791514030499</v>
       </c>
       <c r="F44">
-        <v>0.1889954736943051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.007052793196519454</v>
+      </c>
+      <c r="G44">
+        <v>-0.09162959445594479</v>
+      </c>
+      <c r="H44">
+        <v>-0.02501081887004291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01932752727035118</v>
+        <v>-0.02245942594468319</v>
       </c>
       <c r="C46">
-        <v>0.01758422262217547</v>
+        <v>0.003864306994477236</v>
       </c>
       <c r="D46">
-        <v>0.03227130066393558</v>
+        <v>0.01247728455523717</v>
       </c>
       <c r="E46">
-        <v>0.05719269311302305</v>
+        <v>-0.005328274564096448</v>
       </c>
       <c r="F46">
-        <v>0.05395085864856771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03512803586891815</v>
+      </c>
+      <c r="G46">
+        <v>-0.05151852569820914</v>
+      </c>
+      <c r="H46">
+        <v>0.01082552096273237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09486244128508677</v>
+        <v>-0.07216212789168716</v>
       </c>
       <c r="C47">
-        <v>0.03508945273448115</v>
+        <v>0.04825565131759301</v>
       </c>
       <c r="D47">
-        <v>0.03382703618086406</v>
+        <v>0.02274500406905598</v>
       </c>
       <c r="E47">
-        <v>0.04273276390471323</v>
+        <v>-0.008564274435127603</v>
       </c>
       <c r="F47">
-        <v>-0.0007794766139819308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0321455131347357</v>
+      </c>
+      <c r="G47">
+        <v>0.01377749446942833</v>
+      </c>
+      <c r="H47">
+        <v>0.02759661601715675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01115764245900086</v>
+        <v>-0.01725336861861509</v>
       </c>
       <c r="C48">
-        <v>0.004493670537628222</v>
+        <v>0.009297637469922378</v>
       </c>
       <c r="D48">
-        <v>0.02244304778445272</v>
+        <v>0.00755873033466876</v>
       </c>
       <c r="E48">
-        <v>0.04241247483395532</v>
+        <v>-0.00144647582332894</v>
       </c>
       <c r="F48">
-        <v>0.04854021875371571</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01234241705912385</v>
+      </c>
+      <c r="G48">
+        <v>-0.0291455804136348</v>
+      </c>
+      <c r="H48">
+        <v>-0.006572698917628815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08695542624993234</v>
+        <v>-0.06664520826581706</v>
       </c>
       <c r="C50">
-        <v>0.01906313065224641</v>
+        <v>0.0415333041134258</v>
       </c>
       <c r="D50">
-        <v>0.04596832508486329</v>
+        <v>0.03793254095399651</v>
       </c>
       <c r="E50">
-        <v>0.04180883010383949</v>
+        <v>0.005145629039614825</v>
       </c>
       <c r="F50">
-        <v>0.01317245571274426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02839022195617652</v>
+      </c>
+      <c r="G50">
+        <v>-0.01535766872131344</v>
+      </c>
+      <c r="H50">
+        <v>0.02266316430091867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04616069774836889</v>
+        <v>-0.02829707121251484</v>
       </c>
       <c r="C51">
-        <v>-0.002330507622245638</v>
+        <v>0.006992679162749474</v>
       </c>
       <c r="D51">
-        <v>0.05021353250589786</v>
+        <v>-0.001832627023464961</v>
       </c>
       <c r="E51">
-        <v>0.008505969192969117</v>
+        <v>-0.01444770367382477</v>
       </c>
       <c r="F51">
-        <v>0.1629936727810109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01651015019099654</v>
+      </c>
+      <c r="G51">
+        <v>-0.09086794326117979</v>
+      </c>
+      <c r="H51">
+        <v>-0.03342728730292904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1089262530453345</v>
+        <v>-0.09462592135180917</v>
       </c>
       <c r="C53">
-        <v>0.04287273849095875</v>
+        <v>0.06240788549626917</v>
       </c>
       <c r="D53">
-        <v>0.05963837827154094</v>
+        <v>0.05161408494961735</v>
       </c>
       <c r="E53">
-        <v>0.0623294845057572</v>
+        <v>-0.007631469891649364</v>
       </c>
       <c r="F53">
-        <v>-0.06151309961712845</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0623578279353265</v>
+      </c>
+      <c r="G53">
+        <v>0.05875148718353061</v>
+      </c>
+      <c r="H53">
+        <v>0.03606436762206307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02422387141626181</v>
+        <v>-0.02234695692250102</v>
       </c>
       <c r="C54">
-        <v>0.03691814121069951</v>
+        <v>0.01840411051176006</v>
       </c>
       <c r="D54">
-        <v>0.01341279291325124</v>
+        <v>-0.02068093339345802</v>
       </c>
       <c r="E54">
-        <v>0.03669669410854601</v>
+        <v>0.00167459042994841</v>
       </c>
       <c r="F54">
-        <v>0.07531695280764776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01624137101872368</v>
+      </c>
+      <c r="G54">
+        <v>-0.04761388932326688</v>
+      </c>
+      <c r="H54">
+        <v>0.01911812844200878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1041425329439239</v>
+        <v>-0.08218702004394954</v>
       </c>
       <c r="C55">
-        <v>0.02829657940294106</v>
+        <v>0.05456365361570888</v>
       </c>
       <c r="D55">
-        <v>0.008654879748138765</v>
+        <v>0.04606645978688979</v>
       </c>
       <c r="E55">
-        <v>0.05476291548678552</v>
+        <v>0.005273139697093098</v>
       </c>
       <c r="F55">
-        <v>-0.05817270952456768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04626104397242533</v>
+      </c>
+      <c r="G55">
+        <v>0.03895787613520761</v>
+      </c>
+      <c r="H55">
+        <v>0.05156304348513639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.144953395681835</v>
+        <v>-0.1227156735499677</v>
       </c>
       <c r="C56">
-        <v>0.07320179627804069</v>
+        <v>0.08812944187485448</v>
       </c>
       <c r="D56">
-        <v>0.03627711388966795</v>
+        <v>0.05949936483437036</v>
       </c>
       <c r="E56">
-        <v>0.0721328766308429</v>
+        <v>-0.002294297644102413</v>
       </c>
       <c r="F56">
-        <v>-0.1590765244658263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08519439536809202</v>
+      </c>
+      <c r="G56">
+        <v>0.1031706696279867</v>
+      </c>
+      <c r="H56">
+        <v>0.02806711350842759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04630996343031361</v>
+        <v>-0.04441101819623591</v>
       </c>
       <c r="C57">
-        <v>0.01979101247989526</v>
+        <v>0.001122278893937848</v>
       </c>
       <c r="D57">
-        <v>0.03957348783465495</v>
+        <v>0.02371511736654318</v>
       </c>
       <c r="E57">
-        <v>0.02706789819336782</v>
+        <v>-0.01365631014370809</v>
       </c>
       <c r="F57">
-        <v>0.08252136340000352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0295486716301552</v>
+      </c>
+      <c r="G57">
+        <v>-0.06879401119178431</v>
+      </c>
+      <c r="H57">
+        <v>-0.01711679198151525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2135783500715022</v>
+        <v>-0.1594269233282617</v>
       </c>
       <c r="C58">
-        <v>0.06563987213706868</v>
+        <v>0.08671266791252177</v>
       </c>
       <c r="D58">
-        <v>0.1326896747324092</v>
+        <v>0.1201100897078547</v>
       </c>
       <c r="E58">
-        <v>0.1234331632780347</v>
+        <v>-0.1276939104760186</v>
       </c>
       <c r="F58">
-        <v>0.2732179141363719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.04891198667063392</v>
+      </c>
+      <c r="G58">
+        <v>-0.6645213464477628</v>
+      </c>
+      <c r="H58">
+        <v>0.5601670323999928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06786799562030559</v>
+        <v>-0.1083140460868069</v>
       </c>
       <c r="C59">
-        <v>0.09080565984488775</v>
+        <v>0.05048129709605319</v>
       </c>
       <c r="D59">
-        <v>-0.06797620691543364</v>
+        <v>-0.2195701189405988</v>
       </c>
       <c r="E59">
-        <v>-0.1411001533033635</v>
+        <v>-0.03292640865746906</v>
       </c>
       <c r="F59">
-        <v>0.05353380786097427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0874771489872926</v>
+      </c>
+      <c r="G59">
+        <v>-0.02894713264431994</v>
+      </c>
+      <c r="H59">
+        <v>-0.02609753448283767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1655401134317943</v>
+        <v>-0.1630819802570981</v>
       </c>
       <c r="C60">
-        <v>0.07709190426188893</v>
+        <v>0.07594289181722184</v>
       </c>
       <c r="D60">
-        <v>0.05011379950498566</v>
+        <v>-0.007170216853324755</v>
       </c>
       <c r="E60">
-        <v>-0.02412786367187295</v>
+        <v>-0.05788980210717579</v>
       </c>
       <c r="F60">
-        <v>0.09487914228680834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05856140040640096</v>
+      </c>
+      <c r="G60">
+        <v>-0.114577793208802</v>
+      </c>
+      <c r="H60">
+        <v>-0.3540724374593143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02259871957171962</v>
+        <v>-0.02419452266565915</v>
       </c>
       <c r="C61">
-        <v>0.009866496117189833</v>
+        <v>0.01389134792557963</v>
       </c>
       <c r="D61">
-        <v>0.01255826045625719</v>
+        <v>0.03654430608256586</v>
       </c>
       <c r="E61">
-        <v>0.0307093416022681</v>
+        <v>0.001463203684043369</v>
       </c>
       <c r="F61">
-        <v>0.03666185805046598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03404619702633375</v>
+      </c>
+      <c r="G61">
+        <v>-0.02962598229798311</v>
+      </c>
+      <c r="H61">
+        <v>-0.03924510486728565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02110298612816958</v>
+        <v>-0.01649888956967265</v>
       </c>
       <c r="C63">
-        <v>0.01606299726558255</v>
+        <v>0.003423819812879223</v>
       </c>
       <c r="D63">
-        <v>0.02737068365796805</v>
+        <v>0.01156892036395312</v>
       </c>
       <c r="E63">
-        <v>0.04660156663799887</v>
+        <v>-0.0002408756972612415</v>
       </c>
       <c r="F63">
-        <v>0.02415348106785467</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02464011529831627</v>
+      </c>
+      <c r="G63">
+        <v>-0.02143697381870897</v>
+      </c>
+      <c r="H63">
+        <v>0.004592171423710541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05022280394414077</v>
+        <v>-0.04670181780991561</v>
       </c>
       <c r="C64">
-        <v>0.01531837761386037</v>
+        <v>0.02422346028813632</v>
       </c>
       <c r="D64">
-        <v>0.01690319957298863</v>
+        <v>0.04352442306273156</v>
       </c>
       <c r="E64">
-        <v>0.08571291183976343</v>
+        <v>0.008117452995003979</v>
       </c>
       <c r="F64">
-        <v>0.04395840959473942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03385659668193475</v>
+      </c>
+      <c r="G64">
+        <v>-0.0181857149073763</v>
+      </c>
+      <c r="H64">
+        <v>-0.03470894060749492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.009206589996103917</v>
+        <v>-0.03613614963369054</v>
       </c>
       <c r="C65">
-        <v>-0.0003619798180307989</v>
+        <v>0.005012165759552253</v>
       </c>
       <c r="D65">
-        <v>0.007726466812077148</v>
+        <v>0.03401496098282074</v>
       </c>
       <c r="E65">
-        <v>-0.0009297459395652398</v>
+        <v>0.004008863318351047</v>
       </c>
       <c r="F65">
-        <v>0.006923795867426221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0324436826001014</v>
+      </c>
+      <c r="G65">
+        <v>0.004274855838023631</v>
+      </c>
+      <c r="H65">
+        <v>-0.06037306714425965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04564943354814389</v>
+        <v>-0.0373536487586183</v>
       </c>
       <c r="C66">
-        <v>0.02899495710356496</v>
+        <v>0.02020625428840098</v>
       </c>
       <c r="D66">
-        <v>0.03976891560962293</v>
+        <v>0.07506426228220625</v>
       </c>
       <c r="E66">
-        <v>0.05901844413862776</v>
+        <v>-0.01161913553923425</v>
       </c>
       <c r="F66">
-        <v>0.04398659575545313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07044523020914817</v>
+      </c>
+      <c r="G66">
+        <v>-0.04121797494452692</v>
+      </c>
+      <c r="H66">
+        <v>-0.06556177819218102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02653654749332229</v>
+        <v>-0.03238898050384409</v>
       </c>
       <c r="C67">
-        <v>0.01121406677667374</v>
+        <v>0.02547594059727038</v>
       </c>
       <c r="D67">
-        <v>-0.01771379595391642</v>
+        <v>-0.009201614347569016</v>
       </c>
       <c r="E67">
-        <v>-0.0196574881117652</v>
+        <v>0.001139959822596639</v>
       </c>
       <c r="F67">
-        <v>0.02654868223569347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01239820294617501</v>
+      </c>
+      <c r="G67">
+        <v>-0.01965072429452644</v>
+      </c>
+      <c r="H67">
+        <v>-0.03667289716790479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07448273959361457</v>
+        <v>-0.1103146427400596</v>
       </c>
       <c r="C68">
-        <v>0.07740283223993477</v>
+        <v>0.02747064604249626</v>
       </c>
       <c r="D68">
-        <v>-0.1002459707329569</v>
+        <v>-0.2143197701888194</v>
       </c>
       <c r="E68">
-        <v>-0.1963910688556909</v>
+        <v>-0.02800095867837916</v>
       </c>
       <c r="F68">
-        <v>0.02728559774550365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1114921224739654</v>
+      </c>
+      <c r="G68">
+        <v>-0.02310061336843445</v>
+      </c>
+      <c r="H68">
+        <v>0.0452162874769796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07222802948896992</v>
+        <v>-0.05691401033444</v>
       </c>
       <c r="C69">
-        <v>0.03522268768387092</v>
+        <v>0.04303383682439292</v>
       </c>
       <c r="D69">
-        <v>0.02461345551228757</v>
+        <v>0.01622961160620706</v>
       </c>
       <c r="E69">
-        <v>0.003332055146926121</v>
+        <v>-0.008663157512860533</v>
       </c>
       <c r="F69">
-        <v>0.01457610520261419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02746536332460903</v>
+      </c>
+      <c r="G69">
+        <v>0.003685420118612782</v>
+      </c>
+      <c r="H69">
+        <v>0.007847324657999014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08840221478729746</v>
+        <v>-0.1071047670703391</v>
       </c>
       <c r="C71">
-        <v>0.07918469271634439</v>
+        <v>0.03680409404567343</v>
       </c>
       <c r="D71">
-        <v>-0.0791520441627863</v>
+        <v>-0.200110377536995</v>
       </c>
       <c r="E71">
-        <v>-0.2323141139070339</v>
+        <v>-0.03125355946966366</v>
       </c>
       <c r="F71">
-        <v>0.05547819441932399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1194436534394354</v>
+      </c>
+      <c r="G71">
+        <v>-0.02759145054899367</v>
+      </c>
+      <c r="H71">
+        <v>0.01775477015716319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1066070775096936</v>
+        <v>-0.08704573095571748</v>
       </c>
       <c r="C72">
-        <v>0.1150699482231484</v>
+        <v>0.0672410477396634</v>
       </c>
       <c r="D72">
-        <v>0.02842219242317537</v>
+        <v>0.05109364766187188</v>
       </c>
       <c r="E72">
-        <v>0.06413608981084111</v>
+        <v>-0.01453168914186258</v>
       </c>
       <c r="F72">
-        <v>0.05060471106781891</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1180950638576368</v>
+      </c>
+      <c r="G72">
+        <v>-0.07483525135484922</v>
+      </c>
+      <c r="H72">
+        <v>-0.1452630478109792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2363798634122938</v>
+        <v>-0.227358657662064</v>
       </c>
       <c r="C73">
-        <v>0.1163960549309502</v>
+        <v>0.1003271150752085</v>
       </c>
       <c r="D73">
-        <v>0.02808069026522316</v>
+        <v>0.01011565803553474</v>
       </c>
       <c r="E73">
-        <v>-0.07946911684376791</v>
+        <v>-0.09094923510710075</v>
       </c>
       <c r="F73">
-        <v>0.1848304662504043</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06408033318168524</v>
+      </c>
+      <c r="G73">
+        <v>-0.1657058373240572</v>
+      </c>
+      <c r="H73">
+        <v>-0.5064577886970926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1226155384582438</v>
+        <v>-0.1091597626448198</v>
       </c>
       <c r="C74">
-        <v>0.03839226710267687</v>
+        <v>0.07757055728132142</v>
       </c>
       <c r="D74">
-        <v>0.03399635057501815</v>
+        <v>0.05481100905528014</v>
       </c>
       <c r="E74">
-        <v>0.03603841301888679</v>
+        <v>-0.009136388166058027</v>
       </c>
       <c r="F74">
-        <v>-0.1147267859868322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06628613308108644</v>
+      </c>
+      <c r="G74">
+        <v>0.08903619365094045</v>
+      </c>
+      <c r="H74">
+        <v>0.001213990351829843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2211603443883434</v>
+        <v>-0.2160787565601019</v>
       </c>
       <c r="C75">
-        <v>0.1131154425891727</v>
+        <v>0.1553436371308569</v>
       </c>
       <c r="D75">
-        <v>0.0744660346859326</v>
+        <v>0.06321548515386803</v>
       </c>
       <c r="E75">
-        <v>0.05561694584075934</v>
+        <v>-0.03522114966708039</v>
       </c>
       <c r="F75">
-        <v>-0.1727092102344717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1282624913822708</v>
+      </c>
+      <c r="G75">
+        <v>0.1607806141460398</v>
+      </c>
+      <c r="H75">
+        <v>0.09171800835785338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2621994779654617</v>
+        <v>-0.2084722577940394</v>
       </c>
       <c r="C76">
-        <v>0.1304889099077309</v>
+        <v>0.1542026130580197</v>
       </c>
       <c r="D76">
-        <v>0.01750027751393482</v>
+        <v>0.068542151598602</v>
       </c>
       <c r="E76">
-        <v>0.06719892140438448</v>
+        <v>0.006653458714761461</v>
       </c>
       <c r="F76">
-        <v>-0.2119498785117043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1379733774237293</v>
+      </c>
+      <c r="G76">
+        <v>0.1814406471218865</v>
+      </c>
+      <c r="H76">
+        <v>0.1028133365085912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1409794495308787</v>
+        <v>-0.08068590888801475</v>
       </c>
       <c r="C77">
-        <v>-0.01661099693082803</v>
+        <v>0.0301251360863524</v>
       </c>
       <c r="D77">
-        <v>0.07006661987434416</v>
+        <v>0.07367597886245145</v>
       </c>
       <c r="E77">
-        <v>0.05309029363257003</v>
+        <v>-0.0152370511817861</v>
       </c>
       <c r="F77">
-        <v>0.2082287772666199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0008346639726927448</v>
+      </c>
+      <c r="G77">
+        <v>-0.127797620087699</v>
+      </c>
+      <c r="H77">
+        <v>0.04595434757638759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05648836101432051</v>
+        <v>-0.03964499791563076</v>
       </c>
       <c r="C78">
-        <v>0.009445877761517505</v>
+        <v>0.02138004176681773</v>
       </c>
       <c r="D78">
-        <v>0.04365735762386868</v>
+        <v>0.05342771420641343</v>
       </c>
       <c r="E78">
-        <v>0.09009936124730107</v>
+        <v>0.00254236804012461</v>
       </c>
       <c r="F78">
-        <v>0.03667071623930303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04622932701597194</v>
+      </c>
+      <c r="G78">
+        <v>-0.04888498943150479</v>
+      </c>
+      <c r="H78">
+        <v>-0.03527690116828572</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1968344460089623</v>
+        <v>-0.1731709050612005</v>
       </c>
       <c r="C80">
-        <v>-0.1600422081944247</v>
+        <v>0.09157442680848525</v>
       </c>
       <c r="D80">
-        <v>-0.8592817315175147</v>
+        <v>0.01093446896801003</v>
       </c>
       <c r="E80">
-        <v>0.4151713332045651</v>
+        <v>0.9613842955259333</v>
       </c>
       <c r="F80">
-        <v>0.05255634348575212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.09535529171151859</v>
+      </c>
+      <c r="G80">
+        <v>-0.1048102242312149</v>
+      </c>
+      <c r="H80">
+        <v>-0.00742172996572517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1559214027561667</v>
+        <v>-0.1464176870974276</v>
       </c>
       <c r="C81">
-        <v>0.09932315313929169</v>
+        <v>0.1056225282342915</v>
       </c>
       <c r="D81">
-        <v>0.03218433328690396</v>
+        <v>0.0413374638909961</v>
       </c>
       <c r="E81">
-        <v>0.05365739047725911</v>
+        <v>-0.008837089402556524</v>
       </c>
       <c r="F81">
-        <v>-0.1914193356059789</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09670023680874777</v>
+      </c>
+      <c r="G81">
+        <v>0.1192062590447793</v>
+      </c>
+      <c r="H81">
+        <v>0.08001119452924035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05592220305122869</v>
+        <v>-0.04046984677433261</v>
       </c>
       <c r="C83">
-        <v>-0.01094048873981736</v>
+        <v>0.01785345907452242</v>
       </c>
       <c r="D83">
-        <v>0.04826406419110272</v>
+        <v>0.0272475061722752</v>
       </c>
       <c r="E83">
-        <v>0.03844017894441918</v>
+        <v>-0.01441608659249831</v>
       </c>
       <c r="F83">
-        <v>0.08011848511955091</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01322611753366146</v>
+      </c>
+      <c r="G83">
+        <v>-0.05773087986135488</v>
+      </c>
+      <c r="H83">
+        <v>-0.02337187956200258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.235371443022537</v>
+        <v>-0.2097106071140825</v>
       </c>
       <c r="C85">
-        <v>0.09556771984339961</v>
+        <v>0.1371763564809996</v>
       </c>
       <c r="D85">
-        <v>0.04395245625689413</v>
+        <v>0.08704081596761057</v>
       </c>
       <c r="E85">
-        <v>0.05170305854751849</v>
+        <v>-0.02281159365999821</v>
       </c>
       <c r="F85">
-        <v>-0.1933008892883961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1225827135955539</v>
+      </c>
+      <c r="G85">
+        <v>0.165585532433479</v>
+      </c>
+      <c r="H85">
+        <v>0.06561151607304083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002212588935134802</v>
+        <v>-0.008696392283646095</v>
       </c>
       <c r="C86">
-        <v>-0.007615663318937029</v>
+        <v>-0.001234313197236978</v>
       </c>
       <c r="D86">
-        <v>0.02460446463027303</v>
+        <v>0.01891142047096889</v>
       </c>
       <c r="E86">
-        <v>0.07273261051450051</v>
+        <v>-0.006552238085538655</v>
       </c>
       <c r="F86">
-        <v>0.08012757300545793</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01313626126577387</v>
+      </c>
+      <c r="G86">
+        <v>-0.07958606183072646</v>
+      </c>
+      <c r="H86">
+        <v>-0.04915687495365294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02554402386764145</v>
+        <v>-0.02720955996445806</v>
       </c>
       <c r="C87">
-        <v>0.01737521151873711</v>
+        <v>0.008645306127112265</v>
       </c>
       <c r="D87">
-        <v>-0.003763579341496046</v>
+        <v>0.0163834601049573</v>
       </c>
       <c r="E87">
-        <v>-0.00258783696822072</v>
+        <v>-0.001673845218019856</v>
       </c>
       <c r="F87">
-        <v>0.07979659205469074</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01312954050867633</v>
+      </c>
+      <c r="G87">
+        <v>-0.08529274786710665</v>
+      </c>
+      <c r="H87">
+        <v>-0.0317137287182904</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01053308032745365</v>
+        <v>-0.03839025184750865</v>
       </c>
       <c r="C88">
-        <v>0.01781015100358439</v>
+        <v>-0.002378618778580689</v>
       </c>
       <c r="D88">
-        <v>-0.01699020078247218</v>
+        <v>-0.0108698511295916</v>
       </c>
       <c r="E88">
-        <v>0.004220427960488905</v>
+        <v>0.005147162231064565</v>
       </c>
       <c r="F88">
-        <v>0.03987443158401006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01433261088415533</v>
+      </c>
+      <c r="G88">
+        <v>-0.001068939628714507</v>
+      </c>
+      <c r="H88">
+        <v>-0.01785880930271594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.104159640671525</v>
+        <v>-0.1708940104147329</v>
       </c>
       <c r="C89">
-        <v>0.0987702780275783</v>
+        <v>0.05473882205913087</v>
       </c>
       <c r="D89">
-        <v>-0.09986505613734101</v>
+        <v>-0.3411299703752309</v>
       </c>
       <c r="E89">
-        <v>-0.2938657166414154</v>
+        <v>-0.0675866908511269</v>
       </c>
       <c r="F89">
-        <v>0.1107043961676376</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1678206639529302</v>
+      </c>
+      <c r="G89">
+        <v>-0.02069740194563367</v>
+      </c>
+      <c r="H89">
+        <v>0.01757820653959192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09638438726411055</v>
+        <v>-0.132449976329511</v>
       </c>
       <c r="C90">
-        <v>0.09554625598364622</v>
+        <v>0.04172471977794405</v>
       </c>
       <c r="D90">
-        <v>-0.1467788363529094</v>
+        <v>-0.2944941753243886</v>
       </c>
       <c r="E90">
-        <v>-0.2539343151305043</v>
+        <v>-0.03817025358735538</v>
       </c>
       <c r="F90">
-        <v>0.0602946494729862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1574317214948872</v>
+      </c>
+      <c r="G90">
+        <v>0.01851210238450355</v>
+      </c>
+      <c r="H90">
+        <v>0.03993203489289252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2883638204445093</v>
+        <v>-0.2296747015430438</v>
       </c>
       <c r="C91">
-        <v>0.1024851465519029</v>
+        <v>0.1618769509775549</v>
       </c>
       <c r="D91">
-        <v>0.05735890100126624</v>
+        <v>0.07711333040202897</v>
       </c>
       <c r="E91">
-        <v>0.01641564727282586</v>
+        <v>-0.02903506544007748</v>
       </c>
       <c r="F91">
-        <v>-0.2448829066963757</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1217620758006761</v>
+      </c>
+      <c r="G91">
+        <v>0.2187819282488234</v>
+      </c>
+      <c r="H91">
+        <v>0.1233453020748861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1623114867875313</v>
+        <v>-0.1920889932640331</v>
       </c>
       <c r="C92">
-        <v>0.0912397591649189</v>
+        <v>0.1266985284097628</v>
       </c>
       <c r="D92">
-        <v>-0.189052502488033</v>
+        <v>-0.2688017404642587</v>
       </c>
       <c r="E92">
-        <v>-0.3618382340980456</v>
+        <v>-0.02832995127255796</v>
       </c>
       <c r="F92">
-        <v>0.09067495376142064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1386405511009544</v>
+      </c>
+      <c r="G92">
+        <v>0.02980175917637472</v>
+      </c>
+      <c r="H92">
+        <v>0.1314585058648726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1052232202399803</v>
+        <v>-0.1535128244485632</v>
       </c>
       <c r="C93">
-        <v>0.08130212992092369</v>
+        <v>0.0556871153813765</v>
       </c>
       <c r="D93">
-        <v>-0.1753834953407901</v>
+        <v>-0.3245945647724701</v>
       </c>
       <c r="E93">
-        <v>-0.362484508760871</v>
+        <v>-0.05541328655207071</v>
       </c>
       <c r="F93">
-        <v>0.03143360914022728</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2012929211360245</v>
+      </c>
+      <c r="G93">
+        <v>0.02294236507465114</v>
+      </c>
+      <c r="H93">
+        <v>-0.01686171085961319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2577256376330069</v>
+        <v>-0.2478065203117766</v>
       </c>
       <c r="C94">
-        <v>0.1295840239981263</v>
+        <v>0.1531626275253062</v>
       </c>
       <c r="D94">
-        <v>0.02174988261941364</v>
+        <v>0.05060650828854623</v>
       </c>
       <c r="E94">
-        <v>0.04277929101647281</v>
+        <v>-0.04157407259918125</v>
       </c>
       <c r="F94">
-        <v>-0.3109204394690053</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1351065775169375</v>
+      </c>
+      <c r="G94">
+        <v>0.2392791147819939</v>
+      </c>
+      <c r="H94">
+        <v>0.1313389574774846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.107749880594531</v>
+        <v>-0.07221490151219338</v>
       </c>
       <c r="C95">
-        <v>0.0118358846084125</v>
+        <v>0.05390292870095948</v>
       </c>
       <c r="D95">
-        <v>0.1040811194293286</v>
+        <v>0.08246563818096959</v>
       </c>
       <c r="E95">
-        <v>0.08995852245761805</v>
+        <v>-0.07857310475552239</v>
       </c>
       <c r="F95">
-        <v>0.07733683979321218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03121981208316895</v>
+      </c>
+      <c r="G95">
+        <v>-0.07723541644658771</v>
+      </c>
+      <c r="H95">
+        <v>-0.01757122051904413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1833358231871997</v>
+        <v>-0.1661771020429769</v>
       </c>
       <c r="C98">
-        <v>0.05823427357044846</v>
+        <v>0.1070260110933058</v>
       </c>
       <c r="D98">
-        <v>0.02680568518670766</v>
+        <v>0.01062626381967393</v>
       </c>
       <c r="E98">
-        <v>-0.07867275927374565</v>
+        <v>-0.06295392315722421</v>
       </c>
       <c r="F98">
-        <v>0.08067637940592447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0220362417919572</v>
+      </c>
+      <c r="G98">
+        <v>-0.143288832415185</v>
+      </c>
+      <c r="H98">
+        <v>-0.3572882632403151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007724210349474534</v>
+        <v>-0.01550753511660101</v>
       </c>
       <c r="C101">
-        <v>0.02348632770945457</v>
+        <v>0.004408480409806425</v>
       </c>
       <c r="D101">
-        <v>0.03718795461502167</v>
+        <v>0.01061128380843691</v>
       </c>
       <c r="E101">
-        <v>0.1022095369754418</v>
+        <v>0.002363867975883921</v>
       </c>
       <c r="F101">
-        <v>0.1653953151503764</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03853782079560096</v>
+      </c>
+      <c r="G101">
+        <v>-0.09832708185430221</v>
+      </c>
+      <c r="H101">
+        <v>0.06625596651595492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1027458325659291</v>
+        <v>-0.1090897602461164</v>
       </c>
       <c r="C102">
-        <v>0.02795734993842999</v>
+        <v>0.06357819722157226</v>
       </c>
       <c r="D102">
-        <v>0.03060769576257403</v>
+        <v>0.04823953671258468</v>
       </c>
       <c r="E102">
-        <v>0.07501840876120749</v>
+        <v>-0.00544021921378659</v>
       </c>
       <c r="F102">
-        <v>-0.13512510401285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06683169764535089</v>
+      </c>
+      <c r="G102">
+        <v>0.1018616276741097</v>
+      </c>
+      <c r="H102">
+        <v>0.06347601537703332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02672389753048727</v>
+        <v>-0.0225474399987661</v>
       </c>
       <c r="C103">
-        <v>0.008602964086592581</v>
+        <v>0.01419530123140073</v>
       </c>
       <c r="D103">
-        <v>0.009085059421491798</v>
+        <v>0.01176939756691232</v>
       </c>
       <c r="E103">
-        <v>0.01045047305940506</v>
+        <v>0.006277023847523474</v>
       </c>
       <c r="F103">
-        <v>-0.0265929513389769</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01590234504115271</v>
+      </c>
+      <c r="G103">
+        <v>0.01052283308740524</v>
+      </c>
+      <c r="H103">
+        <v>0.0083162945365693</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.46037088602944</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8640705238901566</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04132686730106808</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02003601671042049</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1665426502659827</v>
+      </c>
+      <c r="G104">
+        <v>0.04062914713635137</v>
+      </c>
+      <c r="H104">
+        <v>0.03526978836486482</v>
       </c>
     </row>
   </sheetData>
